--- a/data/trans_dic/P20_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P20_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le preocupa el nivel de estrés de sus hijos</t>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>37,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,4%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67,77%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>42,27%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,86; 67,43</t>
+          <t>30,05; 45,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,47; 67,11</t>
+          <t>32,47; 52,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,53; 73,06</t>
+          <t>41,19; 55,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,16; 61,13</t>
+          <t>36,82; 50,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,48; 69,17</t>
+          <t>38,28; 48,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,05; 61,96</t>
+          <t>36,74; 48,61</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,26%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58,96%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>38,26%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,49; 70,15</t>
+          <t>30,43; 47,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,76; 60,07</t>
+          <t>23,47; 40,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,4; 71,38</t>
+          <t>40,34; 56,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,31; 65,45</t>
+          <t>36,98; 52,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,83; 68,31</t>
+          <t>37,68; 49,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,24; 60,51</t>
+          <t>32,36; 44,42</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>47,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>46,97%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,98; 62,1</t>
+          <t>8,29; 42,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,1; 77,8</t>
+          <t>20,83; 77,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,5; 85,82</t>
+          <t>31,74; 62,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,61; 73,52</t>
+          <t>32,35; 66,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,29; 68,94</t>
+          <t>22,31; 49,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,38; 71,13</t>
+          <t>31,71; 65,35</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>41,12%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,27; 64,59</t>
+          <t>30,83; 42,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,15; 61,1</t>
+          <t>31,43; 46,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,21; 71,02</t>
+          <t>43,01; 52,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,55; 61,59</t>
+          <t>39,53; 49,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,0; 66,86</t>
+          <t>38,82; 46,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,53; 59,77</t>
+          <t>37,15; 45,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>137081</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>174456</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>209226</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>220007</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>346307</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>394463</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>109892; 165383</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>138914; 224275</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>179314; 241822</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>186064; 255386</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>306655; 391558</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>342834; 453698</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>118100</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>113079</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>168192</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>187194</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>286292</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>300273</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>92710; 145051</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>84368; 143770</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>141239; 197519</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>157281; 222773</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>246725; 323432</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>253966; 348592</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20989</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46782</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38854</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47433</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>59843</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>94216</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7036; 36152</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21197; 79328</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26220; 51623</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31965; 65496</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37356; 82283</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>63607; 131069</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>276169</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>334317</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>416272</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>454634</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>692441</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>788952</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>232885; 319899</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>279442; 413479</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>373338; 458572</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>406967; 504823</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>630247; 756750</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>712721; 870334</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>